--- a/output/POLO_27347332000101.xlsx
+++ b/output/POLO_27347332000101.xlsx
@@ -812,10 +812,10 @@
         <v>44165</v>
       </c>
       <c r="B39">
-        <v>0.6859758600000001</v>
+        <v>0.71244325</v>
       </c>
       <c r="C39">
-        <v>0.0584688615598834</v>
+        <v>0.07508529648426099</v>
       </c>
     </row>
   </sheetData>

--- a/output/POLO_27347332000101.xlsx
+++ b/output/POLO_27347332000101.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>POLO LONG BIAS I FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,436 +383,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43039</v>
       </c>
       <c r="B2">
-        <v>0.05342848999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43069</v>
       </c>
       <c r="B3">
-        <v>0.03741083999999995</v>
-      </c>
-      <c r="C3">
         <v>-0.01520525612516899</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43100</v>
       </c>
       <c r="B4">
-        <v>0.1310803700000001</v>
-      </c>
-      <c r="C4">
         <v>0.09029164376188725</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43131</v>
       </c>
       <c r="B5">
-        <v>0.23311386</v>
-      </c>
-      <c r="C5">
         <v>0.09020887702259395</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43159</v>
       </c>
       <c r="B6">
-        <v>0.29543813</v>
-      </c>
-      <c r="C6">
         <v>0.05054218594218063</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43190</v>
       </c>
       <c r="B7">
-        <v>0.39985085</v>
-      </c>
-      <c r="C7">
         <v>0.08060031396482059</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43220</v>
       </c>
       <c r="B8">
-        <v>0.4545280199999999</v>
-      </c>
-      <c r="C8">
         <v>0.03905928263714653</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43251</v>
       </c>
       <c r="B9">
-        <v>0.4491790099999999</v>
-      </c>
-      <c r="C9">
         <v>-0.003677488454295941</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43281</v>
       </c>
       <c r="B10">
-        <v>0.47991871</v>
-      </c>
-      <c r="C10">
         <v>0.02121180322643501</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43312</v>
       </c>
       <c r="B11">
-        <v>0.5054023000000001</v>
-      </c>
-      <c r="C11">
         <v>0.01721958768938059</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43343</v>
       </c>
       <c r="B12">
-        <v>0.4643603199999999</v>
-      </c>
-      <c r="C12">
         <v>-0.02726313092520194</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43373</v>
       </c>
       <c r="B13">
-        <v>0.4643880600000001</v>
-      </c>
-      <c r="C13">
         <v>1.89434250719156e-05</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43404</v>
       </c>
       <c r="B14">
-        <v>0.5933470999999999</v>
-      </c>
-      <c r="C14">
         <v>0.08806343313124243</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43434</v>
       </c>
       <c r="B15">
-        <v>0.6666923300000001</v>
-      </c>
-      <c r="C15">
         <v>0.04603217340402477</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43465</v>
       </c>
       <c r="B16">
-        <v>0.6439991199999999</v>
-      </c>
-      <c r="C16">
         <v>-0.01361571634519976</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43496</v>
       </c>
       <c r="B17">
-        <v>0.7849495500000001</v>
-      </c>
-      <c r="C17">
         <v>0.085736317182457</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43524</v>
       </c>
       <c r="B18">
-        <v>0.75989617</v>
-      </c>
-      <c r="C18">
         <v>-0.01403590370383301</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43555</v>
       </c>
       <c r="B19">
-        <v>0.65568162</v>
-      </c>
-      <c r="C19">
         <v>-0.05921630592559335</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43585</v>
       </c>
       <c r="B20">
-        <v>0.5893904299999999</v>
-      </c>
-      <c r="C20">
         <v>-0.0400386095969345</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43616</v>
       </c>
       <c r="B21">
-        <v>0.56050603</v>
-      </c>
-      <c r="C21">
         <v>-0.01817325652325708</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43646</v>
       </c>
       <c r="B22">
-        <v>0.57392603</v>
-      </c>
-      <c r="C22">
         <v>0.008599774523139869</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43677</v>
       </c>
       <c r="B23">
-        <v>0.5452153500000001</v>
-      </c>
-      <c r="C23">
         <v>-0.01824144175314257</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43708</v>
       </c>
       <c r="B24">
-        <v>0.5426719600000001</v>
-      </c>
-      <c r="C24">
         <v>-0.001645977694953671</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43738</v>
       </c>
       <c r="B25">
-        <v>0.56157294</v>
-      </c>
-      <c r="C25">
         <v>0.01225210575552294</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43769</v>
       </c>
       <c r="B26">
-        <v>0.5982775899999999</v>
-      </c>
-      <c r="C26">
         <v>0.0235049219026553</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43799</v>
       </c>
       <c r="B27">
-        <v>0.67872759</v>
-      </c>
-      <c r="C27">
         <v>0.05033543641189397</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43830</v>
       </c>
       <c r="B28">
-        <v>0.82004509</v>
-      </c>
-      <c r="C28">
         <v>0.08418131735119694</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43861</v>
       </c>
       <c r="B29">
-        <v>0.8804516899999999</v>
-      </c>
-      <c r="C29">
         <v>0.03318961729678893</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>0.74969208</v>
-      </c>
-      <c r="C30">
         <v>-0.06953627721220523</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43921</v>
       </c>
       <c r="B31">
-        <v>0.26817771</v>
-      </c>
-      <c r="C31">
         <v>-0.2751994911013143</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43951</v>
       </c>
       <c r="B32">
-        <v>0.5006532299999999</v>
-      </c>
-      <c r="C32">
         <v>0.1833146239417818</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43982</v>
       </c>
       <c r="B33">
-        <v>0.5526985</v>
-      </c>
-      <c r="C33">
         <v>0.03468174322991335</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44012</v>
       </c>
       <c r="B34">
-        <v>0.6920324499999999</v>
-      </c>
-      <c r="C34">
         <v>0.08973664236810941</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44043</v>
       </c>
       <c r="B35">
-        <v>0.80161872</v>
-      </c>
-      <c r="C35">
         <v>0.06476605693939264</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44074</v>
       </c>
       <c r="B36">
-        <v>0.8236190800000001</v>
-      </c>
-      <c r="C36">
         <v>0.01221144060936497</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>44104</v>
       </c>
       <c r="B37">
-        <v>0.6835437200000001</v>
-      </c>
-      <c r="C37">
         <v>-0.07681174294359761</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>44135</v>
       </c>
       <c r="B38">
-        <v>0.5928440800000001</v>
-      </c>
-      <c r="C38">
         <v>-0.05387424093744353</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>44165</v>
       </c>
       <c r="B39">
-        <v>0.71244325</v>
-      </c>
-      <c r="C39">
-        <v>0.07508529648426099</v>
+        <v>0.05966715210442941</v>
       </c>
     </row>
   </sheetData>
